--- a/output/aggregate_tables/Area Statistics/area_Deep Sea_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Deep Sea_summary.xlsx
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.1213498</v>
+        <v>0.11214782</v>
       </c>
     </row>
     <row r="4">
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.1213498</v>
+        <v>0.11214782</v>
       </c>
     </row>
     <row r="6">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
     </row>
     <row r="9">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
     </row>
     <row r="10">
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
     </row>
     <row r="11">
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
     </row>
   </sheetData>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.1213498</v>
+        <v>0.11214782</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.26934514</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.1213498</v>
+        <v>0.11214782</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0.26934514</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
     </row>
     <row r="5">
@@ -1598,13 +1598,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.1213498</v>
+        <v>0.11214782</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.26934514</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.1213498</v>
+        <v>0.11214782</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>0.26934514</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
     </row>
     <row r="6">

--- a/output/aggregate_tables/Area Statistics/area_Deep Sea_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Deep Sea_summary.xlsx
@@ -20,7 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -175,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -194,6 +196,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1341,8 +1344,8 @@
           <t>MSF (Mt)</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.11214782</v>
+      <c r="C3" s="10" t="n">
+        <v>0.04298276364640884</v>
       </c>
     </row>
     <row r="4">
@@ -1352,8 +1355,8 @@
           <t>O (Mt)</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.26934514</v>
+      <c r="C4" s="10" t="n">
+        <v>0.03504234798678382</v>
       </c>
     </row>
     <row r="5">
@@ -1363,19 +1366,19 @@
           <t>Sustainable (Mt)</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.11214782</v>
+      <c r="C5" s="10" t="n">
+        <v>0.04298276364640884</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n"/>
+      <c r="A6" s="11" t="n"/>
       <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (Mt)</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>0.26934514</v>
+      <c r="C6" s="10" t="n">
+        <v>0.03504234798678382</v>
       </c>
     </row>
     <row r="7">
@@ -1401,7 +1404,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
     </row>
     <row r="9">
@@ -1412,7 +1415,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
     </row>
     <row r="10">
@@ -1423,18 +1426,18 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="11" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
     </row>
   </sheetData>
@@ -1467,19 +1470,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="11" t="n"/>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="n"/>
-      <c r="F1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="13" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="11" t="n"/>
-      <c r="I1" s="11" t="n"/>
-      <c r="J1" s="11" t="n"/>
-      <c r="K1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="13" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1560,32 +1563,32 @@
       <c r="B4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.11214782</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.26934514</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.11214782</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.26934514</v>
+      <c r="C4" s="10" t="n">
+        <v>0.04298276364640884</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.03504234798678382</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>0.04298276364640884</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0.03504234798678382</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
     </row>
     <row r="5">
@@ -1597,32 +1600,32 @@
       <c r="B5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.11214782</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.26934514</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.11214782</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.26934514</v>
+      <c r="C5" s="10" t="n">
+        <v>0.04298276364640884</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.03504234798678382</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0.04298276364640884</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0.03504234798678382</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
     </row>
     <row r="6">
